--- a/src/analysis_examples/circadb/results_jtk/cosinor_10364030_adora2a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10364030_adora2a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.15556772528686041, 0.2551597778379954]</t>
+          <t>[0.15435835517094237, 0.25636914795391347]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.651383002039154e-08</v>
+        <v>3.934689152274018e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.651383002039154e-08</v>
+        <v>3.934689152274018e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3855643780824928, 0.43889014069184185]</t>
+          <t>[0.38555038284270704, 0.4389041359316276]</t>
         </is>
       </c>
       <c r="U2" t="n">
